--- a/data/humac-data.xlsx
+++ b/data/humac-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anderssa\OneDrive - Høgskolen i Innlandet\Dokumenter\Humac\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/anders_sorensen_inn_no/Documents/Dokumenter/Humac/idr4000-1-arbeidskrav1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B550665-C67A-488F-B335-192044B36D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{1B550665-C67A-488F-B335-192044B36D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311E651A-A098-4B0E-82B2-40CE81B7D744}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23AA248D-14DB-4D6F-9270-B70D59B3698D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23AA248D-14DB-4D6F-9270-B70D59B3698D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>FP Liste</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>ttp.iso</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,6 +1123,42 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
+      <c r="D14">
+        <v>206</v>
+      </c>
+      <c r="E14">
+        <v>0.43</v>
+      </c>
+      <c r="F14">
+        <v>160</v>
+      </c>
+      <c r="G14">
+        <v>0.27</v>
+      </c>
+      <c r="H14">
+        <v>110</v>
+      </c>
+      <c r="I14">
+        <v>0.22</v>
+      </c>
+      <c r="J14">
+        <v>81</v>
+      </c>
+      <c r="K14">
+        <v>0.16</v>
+      </c>
+      <c r="L14">
+        <v>58</v>
+      </c>
+      <c r="M14">
+        <v>0.19</v>
+      </c>
+      <c r="N14">
+        <v>254</v>
+      </c>
+      <c r="O14">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1130,6 +1169,42 @@
       </c>
       <c r="C15" t="s">
         <v>17</v>
+      </c>
+      <c r="D15">
+        <v>184</v>
+      </c>
+      <c r="E15">
+        <v>0.41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
